--- a/medicine/Pharmacie/Imidocarbe/Imidocarbe.xlsx
+++ b/medicine/Pharmacie/Imidocarbe/Imidocarbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imidocarbe (Carbesia) est à l'heure actuelle l'unique molécule piroplasmicide d'usage vétérinaire en France. Son action est efficace et prolongée sur quelques semaines. Elle peut être utilisée dans le traitement et la prévention des babésioses bovine, équine et canine, ainsi que dans le traitement de l'anaplasmose bovine.
  Portail de la médecine vétérinaire   Portail de la pharmacie   Portail de la chimie   Portail de l’élevage   Portail de la parasitologie                 </t>
